--- a/CAMPEONATOLD/docs/Banco de Dados/tabela.xlsx
+++ b/CAMPEONATOLD/docs/Banco de Dados/tabela.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12195"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12195" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="191">
   <si>
     <t>AALD</t>
   </si>
@@ -406,6 +406,189 @@
   </si>
   <si>
     <t>);</t>
+  </si>
+  <si>
+    <t>Vila</t>
+  </si>
+  <si>
+    <t>vila.jpg</t>
+  </si>
+  <si>
+    <t>João Celson</t>
+  </si>
+  <si>
+    <t>Contato para marcar jogos: (32) 984224005</t>
+  </si>
+  <si>
+    <t>32 984224005</t>
+  </si>
+  <si>
+    <t>1964-07-04 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>cruzeiro.jpg</t>
+  </si>
+  <si>
+    <t>Edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contato para marcar jogos: </t>
+  </si>
+  <si>
+    <t>Minas</t>
+  </si>
+  <si>
+    <t>minas.jpg</t>
+  </si>
+  <si>
+    <t>Paulo Cezar</t>
+  </si>
+  <si>
+    <t>aald.jpg</t>
+  </si>
+  <si>
+    <t>Moacir</t>
+  </si>
+  <si>
+    <t>Santa Terezinha</t>
+  </si>
+  <si>
+    <t>santaterezinha.jpg</t>
+  </si>
+  <si>
+    <t>Cléber</t>
+  </si>
+  <si>
+    <t>Esplanado</t>
+  </si>
+  <si>
+    <t>esplanado.jpg</t>
+  </si>
+  <si>
+    <t>Geraldo Fonseca</t>
+  </si>
+  <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>juventus.jpg</t>
+  </si>
+  <si>
+    <t>Samuel</t>
+  </si>
+  <si>
+    <t>Vila Santo Antônio</t>
+  </si>
+  <si>
+    <t>santoantonio.jpg</t>
+  </si>
+  <si>
+    <t>Robertinho</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>bahia.jpg</t>
+  </si>
+  <si>
+    <t>Apagao</t>
+  </si>
+  <si>
+    <t>Apagao.jpg</t>
+  </si>
+  <si>
+    <t>Caete</t>
+  </si>
+  <si>
+    <t>Caete.jpg</t>
+  </si>
+  <si>
+    <t>Manejo</t>
+  </si>
+  <si>
+    <t>Manejo.jpg</t>
+  </si>
+  <si>
+    <t>Laranjeira</t>
+  </si>
+  <si>
+    <t>Laranjeira.jpg</t>
+  </si>
+  <si>
+    <t>Ipiranga</t>
+  </si>
+  <si>
+    <t>Ipiranga.jpg</t>
+  </si>
+  <si>
+    <t>Vila Sao Geraldo</t>
+  </si>
+  <si>
+    <t>vsgfc.jpg</t>
+  </si>
+  <si>
+    <t>Rosa Gomes</t>
+  </si>
+  <si>
+    <t>rosagomes.jpg</t>
+  </si>
+  <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>juventude.jpg</t>
+  </si>
+  <si>
+    <t>São Domingos</t>
+  </si>
+  <si>
+    <t>saodomingos.jpg</t>
+  </si>
+  <si>
+    <t>Perobas</t>
+  </si>
+  <si>
+    <t>perobas.jpg</t>
+  </si>
+  <si>
+    <t>Serab</t>
+  </si>
+  <si>
+    <t>serab.jpg</t>
+  </si>
+  <si>
+    <t>Social</t>
+  </si>
+  <si>
+    <t>social.jpg</t>
+  </si>
+  <si>
+    <t>Poço da Pedra</t>
+  </si>
+  <si>
+    <t>pocopedra.jpg</t>
+  </si>
+  <si>
+    <t>Polemica</t>
+  </si>
+  <si>
+    <t>polemica.jpg</t>
+  </si>
+  <si>
+    <t>Piuna</t>
+  </si>
+  <si>
+    <t>piuna.jpg</t>
+  </si>
+  <si>
+    <t>Orvalho</t>
+  </si>
+  <si>
+    <t>orvalho.jpg</t>
   </si>
 </sst>
 </file>
@@ -743,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="F87" sqref="B63:F87"/>
     </sheetView>
   </sheetViews>
@@ -4420,12 +4603,467 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" t="s">
+        <v>155</v>
+      </c>
+      <c r="D8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" t="s">
+        <v>172</v>
+      </c>
+      <c r="E16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>174</v>
+      </c>
+      <c r="E17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E19" t="s">
+        <v>139</v>
+      </c>
+      <c r="G19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+      <c r="C22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E22" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>185</v>
+      </c>
+      <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>139</v>
+      </c>
+      <c r="G23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="E24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
+      <c r="E25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/CAMPEONATOLD/docs/Banco de Dados/tabela.xlsx
+++ b/CAMPEONATOLD/docs/Banco de Dados/tabela.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12195" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="12195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="192">
   <si>
     <t>AALD</t>
   </si>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>orvalho.jpg</t>
+  </si>
+  <si>
+    <t>insert into t_bolao_campeonato ( nome) values('2ª Divisão')</t>
   </si>
 </sst>
 </file>
@@ -926,7 +929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F87" sqref="B63:F87"/>
     </sheetView>
   </sheetViews>
@@ -4591,12 +4594,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
@@ -4605,7 +4616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
